--- a/output/fit_clients/fit_round_112.xlsx
+++ b/output/fit_clients/fit_round_112.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1986286924.280857</v>
+        <v>1956322738.837252</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08197640549572868</v>
+        <v>0.07030917586600817</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03868274795842064</v>
+        <v>0.04015174160538852</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>993143455.8669341</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2000661158.729113</v>
+        <v>2033517807.443476</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1377263740575735</v>
+        <v>0.1204318507474784</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0380877900969622</v>
+        <v>0.03214472646340691</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1000330619.466599</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5206400048.585787</v>
+        <v>5148149870.013464</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1480154837677911</v>
+        <v>0.1543326595708062</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03062474543344102</v>
+        <v>0.03079597121805375</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2603200123.874245</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3913806336.89346</v>
+        <v>3047307928.432067</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06880809161162239</v>
+        <v>0.1046273846587564</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04056086734753678</v>
+        <v>0.03733863883143788</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1956903177.817912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1992954731.213355</v>
+        <v>2685575954.243179</v>
       </c>
       <c r="F6" t="n">
-        <v>0.137636065716434</v>
+        <v>0.1182188011347867</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05094452008414017</v>
+        <v>0.03790859213642336</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>996477395.9081436</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2414824541.283062</v>
+        <v>2158150759.345514</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06588224481499026</v>
+        <v>0.06763395901037</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04823880238169311</v>
+        <v>0.03578913683411941</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1207412291.844398</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3142676792.051359</v>
+        <v>2545665852.784427</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2200175951390977</v>
+        <v>0.1847033449110456</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02764035922280686</v>
+        <v>0.03272757472125391</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>36</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1571338468.066524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1535034905.001292</v>
+        <v>2097158157.302424</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1807128722513926</v>
+        <v>0.165168620643817</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02300492040849774</v>
+        <v>0.02960919551380155</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>767517543.5804783</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4701785713.306385</v>
+        <v>4947556595.824238</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1618243088771743</v>
+        <v>0.1687157514422311</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05275024339744388</v>
+        <v>0.04910904431768865</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>48</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2350892932.819286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3914687062.015231</v>
+        <v>3899016394.08969</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1740180217580052</v>
+        <v>0.1487922788030203</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03325091765409803</v>
+        <v>0.0432844838040367</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>47</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1957343537.690025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2741876034.365034</v>
+        <v>3219284254.310858</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1971272210560584</v>
+        <v>0.1299661855200181</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03690405782436011</v>
+        <v>0.0409127518163571</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>40</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1370938011.505203</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5152733073.902466</v>
+        <v>4294901481.897827</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08361441747941693</v>
+        <v>0.08173639828921184</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02752866408605364</v>
+        <v>0.03003479839411131</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>38</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2576366533.266686</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2392090126.522338</v>
+        <v>3072478633.628557</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1584471710735415</v>
+        <v>0.1412100818709313</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0340704371485363</v>
+        <v>0.04237672161202573</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>36</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1196045141.655506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1668479712.727074</v>
+        <v>1161381827.609044</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06768870520845542</v>
+        <v>0.0707789628968533</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04497163390619422</v>
+        <v>0.03606295288737815</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>834239979.9983788</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2297479097.359305</v>
+        <v>2860273220.989578</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07947072668935283</v>
+        <v>0.09047926417803132</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04571122165774688</v>
+        <v>0.04158770376538443</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>16</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1148739597.529641</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5257365438.120953</v>
+        <v>4053460443.772705</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1138710540129315</v>
+        <v>0.1097914551431726</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0532795798811633</v>
+        <v>0.03479830497677212</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>33</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2628682691.443766</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3060514487.355528</v>
+        <v>3660301784.538669</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1411924618807848</v>
+        <v>0.1755354735739527</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02730683119535635</v>
+        <v>0.03368600326820538</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>37</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1530257269.541447</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1012897041.607416</v>
+        <v>1065815309.496412</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1854366350476071</v>
+        <v>0.189741635250407</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02611656747843282</v>
+        <v>0.01666124249739141</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>506448553.1186062</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2347700004.617239</v>
+        <v>2162326451.92371</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1123186592779381</v>
+        <v>0.1114142043502207</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02687914577974431</v>
+        <v>0.02815336023205263</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1173849991.572941</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2235911192.278194</v>
+        <v>2192841612.086832</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0970030471107272</v>
+        <v>0.08621467778335966</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0297848158635092</v>
+        <v>0.03680795189145725</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1117955609.491058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2754075537.700935</v>
+        <v>3550356610.122199</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1005236136037689</v>
+        <v>0.1334904590813409</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05065172139716043</v>
+        <v>0.04348559872701071</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>31</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1377037845.052902</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1481712785.14521</v>
+        <v>973614533.912913</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1831824068286442</v>
+        <v>0.1170366491053368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04758794254486638</v>
+        <v>0.04359843339073825</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>740856381.5450679</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3385799291.089197</v>
+        <v>3227603311.347141</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1257525271809186</v>
+        <v>0.1347992951462701</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0277695878196087</v>
+        <v>0.02410920897579743</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>33</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1692899654.78872</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1348322527.763154</v>
+        <v>1338742242.966952</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1158075963106088</v>
+        <v>0.0824324831473387</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02861226475478544</v>
+        <v>0.02047258161106707</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>674161247.6665704</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1079612324.42785</v>
+        <v>1250209375.382597</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08877521273743726</v>
+        <v>0.1147155612703712</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03333471796076878</v>
+        <v>0.02832976036562742</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>539806153.7056835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3868591528.490868</v>
+        <v>4571326346.457627</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09677098563503611</v>
+        <v>0.1016649919999809</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02702863696984054</v>
+        <v>0.02293310101862026</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1934295780.892249</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3270757065.687609</v>
+        <v>3165818747.898847</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09668561072810337</v>
+        <v>0.1169193483582208</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04097060095362512</v>
+        <v>0.03579205633105879</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>35</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1635378567.502698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5416226624.21388</v>
+        <v>4312771742.74526</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1487656893674758</v>
+        <v>0.1140471296448614</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04419124447673889</v>
+        <v>0.0439873881610186</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>51</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2708113230.74057</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1961276646.657502</v>
+        <v>2083762890.9644</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09976081004655957</v>
+        <v>0.08881819956939653</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02688629265370963</v>
+        <v>0.03076458948192193</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>980638356.321043</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1501231401.585049</v>
+        <v>1099227426.307525</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1051641800327784</v>
+        <v>0.0949726344682391</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04670894170275829</v>
+        <v>0.05190121669464733</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>750615581.3103404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1625380377.155889</v>
+        <v>1842236843.214754</v>
       </c>
       <c r="F32" t="n">
-        <v>0.107083199825054</v>
+        <v>0.10511128387489</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02901429268347906</v>
+        <v>0.03641362380517555</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>812690282.8545203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2268779849.289207</v>
+        <v>2713548144.441232</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1657563586956881</v>
+        <v>0.1615328779132269</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04039272805253014</v>
+        <v>0.04715489557320117</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>32</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1134389982.493948</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1089197867.84332</v>
+        <v>966358638.2881014</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08833063738247238</v>
+        <v>0.1166829291521696</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01843650232466602</v>
+        <v>0.01834073454858072</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>544598957.0906658</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1206853785.436285</v>
+        <v>1176506032.395489</v>
       </c>
       <c r="F35" t="n">
-        <v>0.102510952354882</v>
+        <v>0.07879186462784953</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02916869598468821</v>
+        <v>0.02890562525363283</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>603426865.8758103</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2973033000.938604</v>
+        <v>2167573750.027853</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1487403096836757</v>
+        <v>0.1437332221307877</v>
       </c>
       <c r="G36" t="n">
-        <v>0.021109741627134</v>
+        <v>0.01856914948211408</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>29</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1486516484.476329</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2801302232.748047</v>
+        <v>2403804265.409875</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09892355347898872</v>
+        <v>0.08112369755204174</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03099237548453577</v>
+        <v>0.03242018433656344</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>29</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1400651253.826977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1974844203.357228</v>
+        <v>1958618449.975873</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08069770251939437</v>
+        <v>0.07847730340700111</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03804271514672992</v>
+        <v>0.03779941013973614</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>987422083.7984365</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2169748898.13307</v>
+        <v>1719474202.473916</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1187041142459393</v>
+        <v>0.1571880031976262</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02344019048520278</v>
+        <v>0.02600798750520811</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1084874417.793699</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1523357728.544533</v>
+        <v>1318951733.519043</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1565873365271679</v>
+        <v>0.1530051691292442</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03923647318586682</v>
+        <v>0.05570312144670962</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>761678824.5578243</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2373164498.741843</v>
+        <v>2672527441.650081</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1155648723549604</v>
+        <v>0.1509755981385024</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04683888574096932</v>
+        <v>0.04300877567834417</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>27</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1186582286.990429</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3373537379.586407</v>
+        <v>2851232228.790453</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1095802534441235</v>
+        <v>0.09823440314268649</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04075475749208043</v>
+        <v>0.02905888733359871</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>40</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1686768675.887485</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2997444872.98998</v>
+        <v>2795377233.96688</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1689280493626212</v>
+        <v>0.1713232297269398</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01594959819812383</v>
+        <v>0.02375320325684132</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>36</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1498722435.087961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1728033898.225401</v>
+        <v>2336378489.418054</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09655056183628755</v>
+        <v>0.06350856849541178</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03312868653328334</v>
+        <v>0.02475311643396006</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>864017001.1231407</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1630883973.785218</v>
+        <v>1529535237.49609</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1372581482600299</v>
+        <v>0.1246083325188167</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0354201336844806</v>
+        <v>0.04712032794942597</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>815441940.4924585</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3462291458.260897</v>
+        <v>5041538007.973643</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1583182703746933</v>
+        <v>0.1161816030815659</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05302509730172428</v>
+        <v>0.06045721117303077</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>40</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1731145667.86422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3208651038.843577</v>
+        <v>4878372735.737008</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1561089340471428</v>
+        <v>0.1255505600790264</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03758590470168124</v>
+        <v>0.05669413579773061</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>30</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1604325473.651203</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3668785979.119115</v>
+        <v>3109348973.841063</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09492486781101919</v>
+        <v>0.0984037730643388</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03874189493080436</v>
+        <v>0.03184039292802521</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>37</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1834393043.142455</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1551838685.824728</v>
+        <v>1625664797.044967</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1324093181828927</v>
+        <v>0.1197235758527358</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02758763445432332</v>
+        <v>0.03085239731967066</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>775919366.8308723</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3948296756.757017</v>
+        <v>3467642318.228327</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1523395585701774</v>
+        <v>0.127083873210268</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03747321708358931</v>
+        <v>0.03640861556915279</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>38</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1974148370.696867</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1218694816.156815</v>
+        <v>1038873463.593624</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1232911156341205</v>
+        <v>0.173360211867182</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05292495073616837</v>
+        <v>0.038386861224812</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>609347456.5218706</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4135050001.29046</v>
+        <v>3915596355.431521</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1144490839564634</v>
+        <v>0.1004061310485672</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05432963220217982</v>
+        <v>0.06179160191594752</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>46</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2067525049.117819</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3050658570.516738</v>
+        <v>3637040429.843829</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1426504536610739</v>
+        <v>0.1624649848671309</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02609874590949231</v>
+        <v>0.02849001483284412</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>32</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1525329314.103297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4472158284.013127</v>
+        <v>4047216706.090241</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1298198432074171</v>
+        <v>0.1089388480915262</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03412148675016832</v>
+        <v>0.03973571342640144</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>38</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2236079243.069528</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3112057939.941619</v>
+        <v>3413448199.625031</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1945149917509516</v>
+        <v>0.1975078340969512</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03177359294085561</v>
+        <v>0.0275027403814449</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1556028905.643595</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1697373223.446101</v>
+        <v>1287398250.246124</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1476100327946653</v>
+        <v>0.1059647958604743</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04229668107468776</v>
+        <v>0.0432718348462667</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>848686624.6765703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3601573898.947463</v>
+        <v>3396995597.000964</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1453286126023807</v>
+        <v>0.1526023466902287</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02491573919216123</v>
+        <v>0.02179903641472478</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>36</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1800787004.331292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1305019668.3685</v>
+        <v>1267060444.192909</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1245757096623355</v>
+        <v>0.1450081357038597</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03573302495176643</v>
+        <v>0.03568973227800544</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>652509883.0468441</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5000693561.476608</v>
+        <v>4829607225.951346</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08418856672860708</v>
+        <v>0.08575337915777601</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03539999896251982</v>
+        <v>0.03765725000249595</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>30</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2500346708.375156</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2465658156.515492</v>
+        <v>2812176832.411616</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2061249540152879</v>
+        <v>0.1451001603588202</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03195990091985502</v>
+        <v>0.02178157407596618</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>34</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1232829092.516541</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2174137781.794598</v>
+        <v>2696696224.765996</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1131638111673502</v>
+        <v>0.1225281273191696</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02531940502548169</v>
+        <v>0.02821687700164099</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>40</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1087068949.180359</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2070200145.235509</v>
+        <v>1647260413.054653</v>
       </c>
       <c r="F62" t="n">
-        <v>0.148417827361044</v>
+        <v>0.1542941803974646</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03614852403290202</v>
+        <v>0.03338552618122356</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1035100141.129703</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5110712417.593301</v>
+        <v>4878437100.737157</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09861383041635692</v>
+        <v>0.1036287374854546</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04668283298029152</v>
+        <v>0.03814031434679352</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>32</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2555356221.579391</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3418599416.36402</v>
+        <v>3548383865.226135</v>
       </c>
       <c r="F64" t="n">
-        <v>0.132871738174218</v>
+        <v>0.1278265881774941</v>
       </c>
       <c r="G64" t="n">
-        <v>0.022384617522164</v>
+        <v>0.02700717791515865</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>35</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1709299703.08641</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4366142928.588816</v>
+        <v>4387735864.297706</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1130623731963659</v>
+        <v>0.1108511634402</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03147909581426896</v>
+        <v>0.02253254905836237</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>40</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2183071460.960127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5640315135.083899</v>
+        <v>4094659597.267099</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1599044717112382</v>
+        <v>0.1187166703094844</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04734008410233451</v>
+        <v>0.04220742990417618</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>33</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2820157628.983309</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3039111943.056472</v>
+        <v>2609490511.599324</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09378355801706968</v>
+        <v>0.07754238585501955</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03115867565841221</v>
+        <v>0.03298899031537233</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>36</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1519555986.457856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5031156376.883158</v>
+        <v>5952578897.562901</v>
       </c>
       <c r="F68" t="n">
-        <v>0.114527338779399</v>
+        <v>0.1146959919431687</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03961461670798219</v>
+        <v>0.0470182728722409</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>36</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2515578246.65237</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1575460439.48256</v>
+        <v>2196377194.087384</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1692589188509999</v>
+        <v>0.1589037795352847</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04479483763550735</v>
+        <v>0.03783342594944028</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>787730169.7448466</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2739283207.63853</v>
+        <v>2912960111.214667</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1002230226651813</v>
+        <v>0.09992663396495416</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03119576123375438</v>
+        <v>0.04247342580911171</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>32</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1369641563.795082</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4694406884.085451</v>
+        <v>5441541532.175792</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1193498298062126</v>
+        <v>0.1389032344299852</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03354596177577769</v>
+        <v>0.02497129761691556</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>41</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2347203524.891946</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2114024133.266152</v>
+        <v>1550803200.765187</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09059765547250044</v>
+        <v>0.067054438032528</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04077436780258799</v>
+        <v>0.04196713352340938</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1057011994.494973</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3043532182.057175</v>
+        <v>3267354064.548011</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08761123696940235</v>
+        <v>0.09743978865647679</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04763633962044464</v>
+        <v>0.04043678469098284</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>43</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1521766082.977527</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3126346397.41175</v>
+        <v>2822205321.591577</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1505016740963469</v>
+        <v>0.1797280151286118</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02242856723906525</v>
+        <v>0.03483359897468977</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>38</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1563173253.117461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1547948340.934362</v>
+        <v>1875118950.883962</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1214826079735068</v>
+        <v>0.1325484153037062</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03434305967225797</v>
+        <v>0.03684825391134329</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>773974177.03927</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5056982375.547112</v>
+        <v>5071180695.441364</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08670179408563919</v>
+        <v>0.1059376931852821</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02471402296186948</v>
+        <v>0.0314214702333875</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2528491216.7628</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1499048888.455887</v>
+        <v>1569949540.07944</v>
       </c>
       <c r="F77" t="n">
-        <v>0.156615100977328</v>
+        <v>0.1617333702091629</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01986958969971152</v>
+        <v>0.02954963662244194</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>749524431.6981157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3128363918.574787</v>
+        <v>3021432591.528354</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08505960031258526</v>
+        <v>0.1184467889708765</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03779963188980306</v>
+        <v>0.05449707242146801</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>39</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1564181987.352523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1902349742.448148</v>
+        <v>1583228844.644142</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1603858908385753</v>
+        <v>0.1625985828435262</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02739083759143357</v>
+        <v>0.03471653651780719</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>951174975.7479874</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3780827717.660748</v>
+        <v>4339845139.859128</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09389416457392477</v>
+        <v>0.08757306073249928</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0293194028300788</v>
+        <v>0.03238005101897134</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>23</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1890413847.346891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4304060699.550197</v>
+        <v>5138115513.082363</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1299971396290602</v>
+        <v>0.1023160210083656</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02042053263599733</v>
+        <v>0.02544112585917963</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>25</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2152030324.191722</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4544193949.495203</v>
+        <v>5322056391.36019</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2156118495112817</v>
+        <v>0.1926975761498846</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0258925759479262</v>
+        <v>0.02390826763430811</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>39</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2272096984.072583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1623487253.737417</v>
+        <v>1594724589.535508</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1387694748883561</v>
+        <v>0.1337589658910873</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03763371570049436</v>
+        <v>0.02749939952061456</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>811743565.2584864</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1618637981.290602</v>
+        <v>2099190103.14749</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09614129885999029</v>
+        <v>0.07988081274454767</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05192023871646878</v>
+        <v>0.04407138146874887</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
         <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>809319051.4313638</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2857154472.777285</v>
+        <v>2586189505.742675</v>
       </c>
       <c r="F85" t="n">
-        <v>0.174283527423867</v>
+        <v>0.1782331764147176</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04075518525508384</v>
+        <v>0.05347199850203233</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>41</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1428577280.725081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2547987357.163825</v>
+        <v>2333144947.920495</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1211762610838214</v>
+        <v>0.1053829647628998</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01783890325759798</v>
+        <v>0.02185846958662442</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1273993782.34997</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1228810294.32148</v>
+        <v>985029422.3738439</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1566724432699025</v>
+        <v>0.1458306461003454</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02992251786870766</v>
+        <v>0.02749281883825498</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>614405210.0726967</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2621294649.536438</v>
+        <v>3389177350.989069</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1411299448141227</v>
+        <v>0.1402694068622124</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02538178049110726</v>
+        <v>0.03114165610414758</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>44</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1310647317.733941</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2243303538.982952</v>
+        <v>3210901687.104986</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1041241374744303</v>
+        <v>0.1213317120513265</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03135707320346941</v>
+        <v>0.03058500046457129</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>38</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1121651863.014455</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1895883509.773767</v>
+        <v>1941933113.064616</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1054886689906512</v>
+        <v>0.1274003348036666</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04937544959982131</v>
+        <v>0.03638537180588945</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>947941806.0481066</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1282495071.644824</v>
+        <v>1862362625.559394</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1844339891765727</v>
+        <v>0.1322169338029865</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06034855120625972</v>
+        <v>0.03835539975386754</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>641247603.6533225</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2261745783.137249</v>
+        <v>2963297525.642839</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1104269897038124</v>
+        <v>0.08053388345711075</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03651827200916711</v>
+        <v>0.04259457473369644</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>25</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1130872857.458807</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5032482469.708564</v>
+        <v>4877014982.315665</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1114498504733048</v>
+        <v>0.1199826026891461</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04007925273395775</v>
+        <v>0.05329515174760189</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>34</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2516241168.626384</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2276284902.217326</v>
+        <v>1609320722.272163</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1290867703074065</v>
+        <v>0.1435684274871858</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02607054500707732</v>
+        <v>0.03967973887431093</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1138142485.372439</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2315620469.147055</v>
+        <v>2006573079.071811</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09237479624055782</v>
+        <v>0.08450818670434632</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04146430644412777</v>
+        <v>0.0517163063352942</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>26</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1157810284.006236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1951704451.351671</v>
+        <v>2188581044.145655</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09951707815459572</v>
+        <v>0.09179797947441698</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04471677448696258</v>
+        <v>0.03435228748737773</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>975852217.7455232</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3830997685.108923</v>
+        <v>4711117798.556862</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1667017584488164</v>
+        <v>0.1104671246867144</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02738924219504487</v>
+        <v>0.02278744694481808</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>37</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1915498885.293734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2825576216.727932</v>
+        <v>2980055299.984589</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1262411001882276</v>
+        <v>0.1301434230056236</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03163851541717253</v>
+        <v>0.019818320151927</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>30</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1412788081.174923</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2668517926.101542</v>
+        <v>2175243289.890797</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08939833775800558</v>
+        <v>0.1430958460608705</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03086214152067277</v>
+        <v>0.03444487272240308</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>36</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1334258924.90671</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3259176071.76848</v>
+        <v>3816468619.951717</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1346329569954912</v>
+        <v>0.1334683239766083</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02152507150689143</v>
+        <v>0.02388205747191305</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>34</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1629588047.356073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3618202242.181811</v>
+        <v>2568807612.810602</v>
       </c>
       <c r="F101" t="n">
-        <v>0.170539149506421</v>
+        <v>0.1814712135115663</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0366150929508198</v>
+        <v>0.05152525224076233</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>47</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1809101291.766085</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_112.xlsx
+++ b/output/fit_clients/fit_round_112.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1956322738.837252</v>
+        <v>2241736622.259091</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07030917586600817</v>
+        <v>0.1060517769901083</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04015174160538852</v>
+        <v>0.03073589226239372</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2033517807.443476</v>
+        <v>1859801282.638737</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1204318507474784</v>
+        <v>0.1716221662394123</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03214472646340691</v>
+        <v>0.04185732178055269</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5148149870.013464</v>
+        <v>4815302326.369346</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1543326595708062</v>
+        <v>0.1364081150354536</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03079597121805375</v>
+        <v>0.02693707030705648</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3047307928.432067</v>
+        <v>3256588045.719909</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1046273846587564</v>
+        <v>0.0696525481579236</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03733863883143788</v>
+        <v>0.0397147955070135</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2685575954.243179</v>
+        <v>2674687891.626959</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1182188011347867</v>
+        <v>0.1348797760170349</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03790859213642336</v>
+        <v>0.04561617864078799</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2158150759.345514</v>
+        <v>2266845434.017252</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06763395901037</v>
+        <v>0.09694688613090756</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03578913683411941</v>
+        <v>0.04296425143471524</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2545665852.784427</v>
+        <v>3986851269.522976</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1847033449110456</v>
+        <v>0.1606825905377005</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03272757472125391</v>
+        <v>0.03335844924861387</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2097158157.302424</v>
+        <v>1585932410.589736</v>
       </c>
       <c r="F9" t="n">
-        <v>0.165168620643817</v>
+        <v>0.1632713567710982</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02960919551380155</v>
+        <v>0.02521174411537214</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4947556595.824238</v>
+        <v>3683654451.547214</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1687157514422311</v>
+        <v>0.1459284111485156</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04910904431768865</v>
+        <v>0.04793462483104822</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3899016394.08969</v>
+        <v>2798365534.656572</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1487922788030203</v>
+        <v>0.1374549212973111</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0432844838040367</v>
+        <v>0.04860752537526727</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3219284254.310858</v>
+        <v>2431583162.556917</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1299661855200181</v>
+        <v>0.1718969621283117</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0409127518163571</v>
+        <v>0.03398951731083062</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4294901481.897827</v>
+        <v>3871339328.514688</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08173639828921184</v>
+        <v>0.06420806684352393</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03003479839411131</v>
+        <v>0.03128221804165935</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3072478633.628557</v>
+        <v>2697010278.301245</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1412100818709313</v>
+        <v>0.177885579009489</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04237672161202573</v>
+        <v>0.04170133948763414</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1161381827.609044</v>
+        <v>1261707623.789154</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0707789628968533</v>
+        <v>0.08269473658793351</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03606295288737815</v>
+        <v>0.03878019079384732</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2860273220.989578</v>
+        <v>1908519538.101452</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09047926417803132</v>
+        <v>0.07511578680903197</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04158770376538443</v>
+        <v>0.05007290613609734</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4053460443.772705</v>
+        <v>4722154737.196425</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1097914551431726</v>
+        <v>0.1547761133333956</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03479830497677212</v>
+        <v>0.03448464700289938</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3660301784.538669</v>
+        <v>3303105173.613547</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1755354735739527</v>
+        <v>0.1222322389959786</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03368600326820538</v>
+        <v>0.02924548468698559</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1065815309.496412</v>
+        <v>864851589.9584683</v>
       </c>
       <c r="F19" t="n">
-        <v>0.189741635250407</v>
+        <v>0.1586476289715305</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01666124249739141</v>
+        <v>0.02476728932462316</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2162326451.92371</v>
+        <v>1915508109.709049</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1114142043502207</v>
+        <v>0.1384732835556422</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02815336023205263</v>
+        <v>0.02533748262153592</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2192841612.086832</v>
+        <v>2305631250.961721</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08621467778335966</v>
+        <v>0.09247525922640108</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03680795189145725</v>
+        <v>0.04270282508866852</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3550356610.122199</v>
+        <v>3292178650.775277</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1334904590813409</v>
+        <v>0.1252118738501107</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04348559872701071</v>
+        <v>0.04710899520788494</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>973614533.912913</v>
+        <v>975160272.0380532</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1170366491053368</v>
+        <v>0.1598653146132761</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04359843339073825</v>
+        <v>0.03646929695953658</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3227603311.347141</v>
+        <v>3953412354.115081</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1347992951462701</v>
+        <v>0.1014114353474233</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02410920897579743</v>
+        <v>0.03261998105547794</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1338742242.966952</v>
+        <v>1019222175.679827</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0824324831473387</v>
+        <v>0.0743920640353269</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02047258161106707</v>
+        <v>0.02884457534696412</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1250209375.382597</v>
+        <v>1318671200.350184</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1147155612703712</v>
+        <v>0.1192928568065219</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02832976036562742</v>
+        <v>0.02929290277468618</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4571326346.457627</v>
+        <v>3642697916.838913</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1016649919999809</v>
+        <v>0.1229307591592183</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02293310101862026</v>
+        <v>0.02173039954177981</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3165818747.898847</v>
+        <v>3641567550.007499</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1169193483582208</v>
+        <v>0.1039468269932447</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03579205633105879</v>
+        <v>0.03793040391455252</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4312771742.74526</v>
+        <v>4652088020.899989</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1140471296448614</v>
+        <v>0.1281616559541723</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0439873881610186</v>
+        <v>0.04309826583497114</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2083762890.9644</v>
+        <v>1872689930.765277</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08881819956939653</v>
+        <v>0.1154425553394503</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03076458948192193</v>
+        <v>0.02775228638306653</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1099227426.307525</v>
+        <v>1266844794.699571</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0949726344682391</v>
+        <v>0.1044900175884899</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05190121669464733</v>
+        <v>0.04013445083611612</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1842236843.214754</v>
+        <v>1591159554.165535</v>
       </c>
       <c r="F32" t="n">
-        <v>0.10511128387489</v>
+        <v>0.1165305895064272</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03641362380517555</v>
+        <v>0.02420109817740254</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2713548144.441232</v>
+        <v>2013419234.991908</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1615328779132269</v>
+        <v>0.1564636530340292</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04715489557320117</v>
+        <v>0.04476187510397976</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>966358638.2881014</v>
+        <v>1314262051.336206</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1166829291521696</v>
+        <v>0.1149318196524431</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01834073454858072</v>
+        <v>0.02765560596179648</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1176506032.395489</v>
+        <v>1227260205.051219</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07879186462784953</v>
+        <v>0.09150584443005272</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02890562525363283</v>
+        <v>0.0351097022878111</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2167573750.027853</v>
+        <v>2409180368.848845</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1437332221307877</v>
+        <v>0.1804903762421345</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01856914948211408</v>
+        <v>0.02599161886101191</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2403804265.409875</v>
+        <v>2603111050.969847</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08112369755204174</v>
+        <v>0.09341589690997129</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03242018433656344</v>
+        <v>0.0290947353764744</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1958618449.975873</v>
+        <v>1595559399.791632</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07847730340700111</v>
+        <v>0.1221507144686796</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03779941013973614</v>
+        <v>0.03532488507476383</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1719474202.473916</v>
+        <v>1407097240.34886</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1571880031976262</v>
+        <v>0.1792880594785335</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02600798750520811</v>
+        <v>0.02144915477628595</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1318951733.519043</v>
+        <v>1359623566.546316</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1530051691292442</v>
+        <v>0.1551573144590472</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05570312144670962</v>
+        <v>0.05599260538614496</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2672527441.650081</v>
+        <v>2206017732.904202</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1509755981385024</v>
+        <v>0.1403754965493139</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04300877567834417</v>
+        <v>0.0376598780410065</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2851232228.790453</v>
+        <v>2640982753.716005</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09823440314268649</v>
+        <v>0.08798267478873055</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02905888733359871</v>
+        <v>0.02837513379799449</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2795377233.96688</v>
+        <v>2301043947.837935</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1713232297269398</v>
+        <v>0.1391216942907594</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02375320325684132</v>
+        <v>0.02413130243284202</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2336378489.418054</v>
+        <v>1609055015.203406</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06350856849541178</v>
+        <v>0.08248302007262748</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02475311643396006</v>
+        <v>0.03469300975908634</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1529535237.49609</v>
+        <v>1745107315.037426</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1246083325188167</v>
+        <v>0.1391599588804922</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04712032794942597</v>
+        <v>0.05256410260878053</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5041538007.973643</v>
+        <v>4292891672.558751</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1161816030815659</v>
+        <v>0.1747740392818851</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06045721117303077</v>
+        <v>0.03692529941154026</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4878372735.737008</v>
+        <v>3304703924.595327</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1255505600790264</v>
+        <v>0.1938426528723312</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05669413579773061</v>
+        <v>0.04008833059363248</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3109348973.841063</v>
+        <v>3176796359.200735</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0984037730643388</v>
+        <v>0.08136492971041126</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03184039292802521</v>
+        <v>0.02981939082087061</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1625664797.044967</v>
+        <v>1564362500.739548</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1197235758527358</v>
+        <v>0.130295215726964</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03085239731967066</v>
+        <v>0.03415068860193956</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3467642318.228327</v>
+        <v>4125301964.385963</v>
       </c>
       <c r="F50" t="n">
-        <v>0.127083873210268</v>
+        <v>0.1695916505519836</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03640861556915279</v>
+        <v>0.04201697180111711</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1038873463.593624</v>
+        <v>1127177921.547832</v>
       </c>
       <c r="F51" t="n">
-        <v>0.173360211867182</v>
+        <v>0.1408744136226736</v>
       </c>
       <c r="G51" t="n">
-        <v>0.038386861224812</v>
+        <v>0.04081595572151248</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3915596355.431521</v>
+        <v>3656440715.273389</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1004061310485672</v>
+        <v>0.104429718196776</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06179160191594752</v>
+        <v>0.03793563730002229</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3637040429.843829</v>
+        <v>2987336053.907695</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1624649848671309</v>
+        <v>0.1777900569351737</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02849001483284412</v>
+        <v>0.02854907017318936</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4047216706.090241</v>
+        <v>4888291245.701495</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1089388480915262</v>
+        <v>0.1645032504950291</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03973571342640144</v>
+        <v>0.04048845751609993</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3413448199.625031</v>
+        <v>4653419773.305765</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1975078340969512</v>
+        <v>0.1866864559124814</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0275027403814449</v>
+        <v>0.02931470443856119</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1287398250.246124</v>
+        <v>1811004372.928323</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1059647958604743</v>
+        <v>0.1155619469122757</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0432718348462667</v>
+        <v>0.0541864252683535</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3396995597.000964</v>
+        <v>3705952416.58451</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1526023466902287</v>
+        <v>0.1488724733383883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02179903641472478</v>
+        <v>0.02428696283725383</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1267060444.192909</v>
+        <v>1181624698.247752</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1450081357038597</v>
+        <v>0.1377326535146337</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03568973227800544</v>
+        <v>0.03359069423899533</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4829607225.951346</v>
+        <v>5186181328.925423</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08575337915777601</v>
+        <v>0.09465250638895675</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03765725000249595</v>
+        <v>0.04579192477012448</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2812176832.411616</v>
+        <v>2590199654.959107</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1451001603588202</v>
+        <v>0.1251661269022744</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02178157407596618</v>
+        <v>0.02627029646586643</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2696696224.765996</v>
+        <v>2726527533.626594</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1225281273191696</v>
+        <v>0.1550756574109769</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02821687700164099</v>
+        <v>0.02503077541114702</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1647260413.054653</v>
+        <v>1345367340.337622</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1542941803974646</v>
+        <v>0.1425049588835894</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03338552618122356</v>
+        <v>0.04750300605834851</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4878437100.737157</v>
+        <v>4010686450.850708</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1036287374854546</v>
+        <v>0.08469565793255011</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03814031434679352</v>
+        <v>0.02877079087583027</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3548383865.226135</v>
+        <v>5454579063.140332</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1278265881774941</v>
+        <v>0.1856486442854614</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02700717791515865</v>
+        <v>0.02536400414882462</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4387735864.297706</v>
+        <v>5652032505.300626</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1108511634402</v>
+        <v>0.1104650321930168</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02253254905836237</v>
+        <v>0.02928281657992422</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4094659597.267099</v>
+        <v>4450798143.898853</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1187166703094844</v>
+        <v>0.1505889808518187</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04220742990417618</v>
+        <v>0.042250603910807</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2609490511.599324</v>
+        <v>3229348870.866806</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07754238585501955</v>
+        <v>0.07488013700179309</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03298899031537233</v>
+        <v>0.04532208149384658</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5952578897.562901</v>
+        <v>4524906745.371392</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1146959919431687</v>
+        <v>0.1365308031403389</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0470182728722409</v>
+        <v>0.05136976209978671</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2196377194.087384</v>
+        <v>1801289030.161663</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1589037795352847</v>
+        <v>0.1791772799417398</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03783342594944028</v>
+        <v>0.04027535198454821</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2912960111.214667</v>
+        <v>2336055205.359441</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09992663396495416</v>
+        <v>0.08709956007178873</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04247342580911171</v>
+        <v>0.04847571484745385</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5441541532.175792</v>
+        <v>5039462547.472754</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1389032344299852</v>
+        <v>0.1616998571957244</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02497129761691556</v>
+        <v>0.03008054806024232</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1550803200.765187</v>
+        <v>1489960137.855822</v>
       </c>
       <c r="F72" t="n">
-        <v>0.067054438032528</v>
+        <v>0.08273209816637805</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04196713352340938</v>
+        <v>0.03274514859707536</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3267354064.548011</v>
+        <v>2172763414.333451</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09743978865647679</v>
+        <v>0.08366838547334211</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04043678469098284</v>
+        <v>0.04965800047327881</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2822205321.591577</v>
+        <v>2651303528.661482</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1797280151286118</v>
+        <v>0.1399676723162599</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03483359897468977</v>
+        <v>0.02202097829252465</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1875118950.883962</v>
+        <v>1823761068.747978</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1325484153037062</v>
+        <v>0.1482214911904357</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03684825391134329</v>
+        <v>0.02465554238129744</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5071180695.441364</v>
+        <v>4760225809.061807</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1059376931852821</v>
+        <v>0.09919045607970849</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0314214702333875</v>
+        <v>0.02721728491064675</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1569949540.07944</v>
+        <v>1737785874.642993</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1617333702091629</v>
+        <v>0.1867889751342472</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02954963662244194</v>
+        <v>0.01977927905075252</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3021432591.528354</v>
+        <v>3569344728.950174</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1184467889708765</v>
+        <v>0.1158552154704469</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05449707242146801</v>
+        <v>0.0376088545891988</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1583228844.644142</v>
+        <v>1874566528.561087</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1625985828435262</v>
+        <v>0.1186856878918609</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03471653651780719</v>
+        <v>0.02592065180709157</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4339845139.859128</v>
+        <v>5347890933.913293</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08757306073249928</v>
+        <v>0.08093223998047255</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03238005101897134</v>
+        <v>0.03823452626126297</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5138115513.082363</v>
+        <v>4261584408.435295</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1023160210083656</v>
+        <v>0.111373347703118</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02544112585917963</v>
+        <v>0.03155150399200835</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5322056391.36019</v>
+        <v>5125102234.482178</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1926975761498846</v>
+        <v>0.150531027848053</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02390826763430811</v>
+        <v>0.02558316257240034</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1594724589.535508</v>
+        <v>2329397226.436919</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1337589658910873</v>
+        <v>0.1109111999558422</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02749939952061456</v>
+        <v>0.04255162284875105</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2099190103.14749</v>
+        <v>1713777400.782324</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07988081274454767</v>
+        <v>0.07908396300306737</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04407138146874887</v>
+        <v>0.03770846473995111</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2586189505.742675</v>
+        <v>2547524374.739257</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1782331764147176</v>
+        <v>0.1715897313386543</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05347199850203233</v>
+        <v>0.05422301861152311</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2333144947.920495</v>
+        <v>1856002657.825884</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1053829647628998</v>
+        <v>0.1607335209842527</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02185846958662442</v>
+        <v>0.02037228384043362</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>985029422.3738439</v>
+        <v>1161950393.865622</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1458306461003454</v>
+        <v>0.1785326348229677</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02749281883825498</v>
+        <v>0.03007782674458884</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3389177350.989069</v>
+        <v>2499944160.673951</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1402694068622124</v>
+        <v>0.113822452768095</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03114165610414758</v>
+        <v>0.02507555462528139</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3210901687.104986</v>
+        <v>2126772291.658805</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1213317120513265</v>
+        <v>0.1087805495632401</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03058500046457129</v>
+        <v>0.03837156940040452</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1941933113.064616</v>
+        <v>2172437368.525308</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1274003348036666</v>
+        <v>0.1229731846798742</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03638537180588945</v>
+        <v>0.05295889692546384</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1862362625.559394</v>
+        <v>1881245457.523449</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1322169338029865</v>
+        <v>0.1364874453982733</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03835539975386754</v>
+        <v>0.0385769357352008</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2963297525.642839</v>
+        <v>2708736517.488821</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08053388345711075</v>
+        <v>0.09117768462020774</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04259457473369644</v>
+        <v>0.03141500388310564</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4877014982.315665</v>
+        <v>4835126269.708481</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1199826026891461</v>
+        <v>0.1382366306213642</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05329515174760189</v>
+        <v>0.03327999281819901</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1609320722.272163</v>
+        <v>1746996421.385201</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1435684274871858</v>
+        <v>0.1653071492620099</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03967973887431093</v>
+        <v>0.03982687978719662</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2006573079.071811</v>
+        <v>2356007685.08412</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08450818670434632</v>
+        <v>0.1200501395327872</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0517163063352942</v>
+        <v>0.04136412272732295</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2188581044.145655</v>
+        <v>1545228909.543113</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09179797947441698</v>
+        <v>0.09676374318959786</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03435228748737773</v>
+        <v>0.03304942299578237</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4711117798.556862</v>
+        <v>3913878470.281888</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1104671246867144</v>
+        <v>0.1371701095429775</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02278744694481808</v>
+        <v>0.01869578203299532</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2980055299.984589</v>
+        <v>2847577020.868369</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1301434230056236</v>
+        <v>0.1060283512954632</v>
       </c>
       <c r="G98" t="n">
-        <v>0.019818320151927</v>
+        <v>0.03217595370826737</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2175243289.890797</v>
+        <v>3380142040.757161</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1430958460608705</v>
+        <v>0.09651892361457133</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03444487272240308</v>
+        <v>0.03175132146864628</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3816468619.951717</v>
+        <v>3253966591.147909</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1334683239766083</v>
+        <v>0.1676895209844158</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02388205747191305</v>
+        <v>0.01835329041699555</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2568807612.810602</v>
+        <v>2198491498.043971</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1814712135115663</v>
+        <v>0.1830863272131726</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05152525224076233</v>
+        <v>0.0583354542301367</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_112.xlsx
+++ b/output/fit_clients/fit_round_112.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2241736622.259091</v>
+        <v>2192186764.189779</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1060517769901083</v>
+        <v>0.07999038422788469</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03073589226239372</v>
+        <v>0.04227325940574935</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1859801282.638737</v>
+        <v>2234737476.830073</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1716221662394123</v>
+        <v>0.1751954547112619</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04185732178055269</v>
+        <v>0.0484472653630213</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4815302326.369346</v>
+        <v>4888053084.751166</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1364081150354536</v>
+        <v>0.1125185485610771</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02693707030705648</v>
+        <v>0.02812037372684806</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>68</v>
+      </c>
+      <c r="J4" t="n">
+        <v>112</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3256588045.719909</v>
+        <v>3164346980.136612</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0696525481579236</v>
+        <v>0.07371005286200509</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0397147955070135</v>
+        <v>0.04948434468779002</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>109</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2674687891.626959</v>
+        <v>2746836727.6881</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1348797760170349</v>
+        <v>0.1118169759465816</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04561617864078799</v>
+        <v>0.04134726129363296</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2266845434.017252</v>
+        <v>2786344872.407143</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09694688613090756</v>
+        <v>0.07863415466298022</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04296425143471524</v>
+        <v>0.03324104077151024</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3986851269.522976</v>
+        <v>3886738226.638609</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1606825905377005</v>
+        <v>0.191645243054186</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03335844924861387</v>
+        <v>0.02573379335024046</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>112</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1585932410.589736</v>
+        <v>1844709128.18638</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1632713567710982</v>
+        <v>0.1728613623090383</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02521174411537214</v>
+        <v>0.02865265615484106</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3683654451.547214</v>
+        <v>5529070255.875319</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1459284111485156</v>
+        <v>0.1696240276390956</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04793462483104822</v>
+        <v>0.04630522587324575</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>103</v>
+      </c>
+      <c r="J10" t="n">
+        <v>112</v>
+      </c>
+      <c r="K10" t="n">
+        <v>171.1575195774082</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2798365534.656572</v>
+        <v>3918871149.671504</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1374549212973111</v>
+        <v>0.1522448267927076</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04860752537526727</v>
+        <v>0.03927630852389678</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>47</v>
+      </c>
+      <c r="J11" t="n">
+        <v>111</v>
+      </c>
+      <c r="K11" t="n">
+        <v>126.2200190398844</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2431583162.556917</v>
+        <v>2727740636.766433</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1718969621283117</v>
+        <v>0.1857574693746339</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03398951731083062</v>
+        <v>0.03968005130608974</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3871339328.514688</v>
+        <v>4684311336.726567</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06420806684352393</v>
+        <v>0.09855367081097745</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03128221804165935</v>
+        <v>0.03128206301741563</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>56</v>
+      </c>
+      <c r="J13" t="n">
+        <v>111</v>
+      </c>
+      <c r="K13" t="n">
+        <v>148.9495369628422</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2697010278.301245</v>
+        <v>2868849068.224607</v>
       </c>
       <c r="F14" t="n">
-        <v>0.177885579009489</v>
+        <v>0.1878157360804724</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04170133948763414</v>
+        <v>0.03843985097528295</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>104</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1261707623.789154</v>
+        <v>1209513671.246967</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08269473658793351</v>
+        <v>0.1043977990254409</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03878019079384732</v>
+        <v>0.04427377228257347</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1908519538.101452</v>
+        <v>2099404636.82958</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07511578680903197</v>
+        <v>0.114717061116764</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05007290613609734</v>
+        <v>0.04290445910399363</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4722154737.196425</v>
+        <v>4566411824.071897</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1547761133333956</v>
+        <v>0.1088648947323413</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03448464700289938</v>
+        <v>0.0463141648373039</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>54</v>
+      </c>
+      <c r="J17" t="n">
+        <v>111</v>
+      </c>
+      <c r="K17" t="n">
+        <v>137.3593251028383</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1069,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3303105173.613547</v>
+        <v>2413974781.932704</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1222322389959786</v>
+        <v>0.1321784327993376</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02924548468698559</v>
+        <v>0.02252536435725072</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>29</v>
+      </c>
+      <c r="J18" t="n">
+        <v>111</v>
+      </c>
+      <c r="K18" t="n">
+        <v>42.11682068666589</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>864851589.9584683</v>
+        <v>840394693.6707485</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1586476289715305</v>
+        <v>0.1573350767839249</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02476728932462316</v>
+        <v>0.02250738998930521</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1915508109.709049</v>
+        <v>2624693724.293358</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1384732835556422</v>
+        <v>0.1179771896319926</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02533748262153592</v>
+        <v>0.03101069496264347</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2305631250.961721</v>
+        <v>2228006012.29596</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09247525922640108</v>
+        <v>0.06168780518713247</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04270282508866852</v>
+        <v>0.03365845920442608</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1211,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3292178650.775277</v>
+        <v>3771433669.294025</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1252118738501107</v>
+        <v>0.1026675822700598</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04710899520788494</v>
+        <v>0.04895423389553073</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>28</v>
+      </c>
+      <c r="J22" t="n">
+        <v>111</v>
+      </c>
+      <c r="K22" t="n">
+        <v>97.2629650183211</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>975160272.0380532</v>
+        <v>1022760352.385712</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1598653146132761</v>
+        <v>0.1132262357829321</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03646929695953658</v>
+        <v>0.04677292458515635</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1283,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3953412354.115081</v>
+        <v>3564563076.571075</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1014114353474233</v>
+        <v>0.1109030167448343</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03261998105547794</v>
+        <v>0.02334662222452581</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>34</v>
+      </c>
+      <c r="J24" t="n">
+        <v>111</v>
+      </c>
+      <c r="K24" t="n">
+        <v>87.14673304158251</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1019222175.679827</v>
+        <v>1200920776.429247</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0743920640353269</v>
+        <v>0.0900284037519709</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02884457534696412</v>
+        <v>0.0304008922282559</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1318671200.350184</v>
+        <v>1212907314.169251</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1192928568065219</v>
+        <v>0.093539469892727</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02929290277468618</v>
+        <v>0.02921571991017146</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1390,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3642697916.838913</v>
+        <v>3451581754.446496</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1229307591592183</v>
+        <v>0.1457479683897757</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02173039954177981</v>
+        <v>0.02246635463318386</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>44</v>
+      </c>
+      <c r="J27" t="n">
+        <v>110</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3641567550.007499</v>
+        <v>2664309130.654792</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1039468269932447</v>
+        <v>0.137103983729282</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03793040391455252</v>
+        <v>0.03640960274902307</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>24</v>
+      </c>
+      <c r="J28" t="n">
+        <v>109</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4652088020.899989</v>
+        <v>4541434252.949736</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1281616559541723</v>
+        <v>0.1197858549603342</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04309826583497114</v>
+        <v>0.03079628882384321</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>104</v>
+      </c>
+      <c r="J29" t="n">
+        <v>112</v>
+      </c>
+      <c r="K29" t="n">
+        <v>183.1014292829956</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1872689930.765277</v>
+        <v>2225774760.927639</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1154425553394503</v>
+        <v>0.09514150264775957</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02775228638306653</v>
+        <v>0.02530602545828617</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1266844794.699571</v>
+        <v>1108950800.117499</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1044900175884899</v>
+        <v>0.107467905645156</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04013445083611612</v>
+        <v>0.04449812156716126</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1567,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1591159554.165535</v>
+        <v>1151993237.020805</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1165305895064272</v>
+        <v>0.1147935986789411</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02420109817740254</v>
+        <v>0.02971274019086938</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2013419234.991908</v>
+        <v>2888812740.624413</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1564636530340292</v>
+        <v>0.1608220357725719</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04476187510397976</v>
+        <v>0.0613008751785007</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1637,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1314262051.336206</v>
+        <v>1035586082.742983</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1149318196524431</v>
+        <v>0.09589674660388485</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02765560596179648</v>
+        <v>0.02532135844000863</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1227260205.051219</v>
+        <v>1201456276.945332</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09150584443005272</v>
+        <v>0.1114395637874185</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0351097022878111</v>
+        <v>0.03854645443151891</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2409180368.848845</v>
+        <v>2931682452.547124</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1804903762421345</v>
+        <v>0.1774032904028081</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02599161886101191</v>
+        <v>0.02582176534127889</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2603111050.969847</v>
+        <v>1907717325.247002</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09341589690997129</v>
+        <v>0.06886666573393976</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0290947353764744</v>
+        <v>0.02886768741817554</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1595559399.791632</v>
+        <v>1531774412.940046</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1221507144686796</v>
+        <v>0.09884473147128671</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03532488507476383</v>
+        <v>0.0249942054778124</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1812,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1407097240.34886</v>
+        <v>2077842894.313703</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1792880594785335</v>
+        <v>0.1595236090083916</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02144915477628595</v>
+        <v>0.02202464497873468</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1359623566.546316</v>
+        <v>1807180791.357599</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1551573144590472</v>
+        <v>0.1268588120414115</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05599260538614496</v>
+        <v>0.05182230348562669</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2206017732.904202</v>
+        <v>2177902090.40377</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1403754965493139</v>
+        <v>0.1070055797868626</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0376598780410065</v>
+        <v>0.04227845762977376</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1911,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2640982753.716005</v>
+        <v>3402602300.716308</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08798267478873055</v>
+        <v>0.09515817509264463</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02837513379799449</v>
+        <v>0.04129065498221688</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>41</v>
+      </c>
+      <c r="J42" t="n">
+        <v>111</v>
+      </c>
+      <c r="K42" t="n">
+        <v>89.73025801957274</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2301043947.837935</v>
+        <v>2160299039.997739</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1391216942907594</v>
+        <v>0.2005290035057837</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02413130243284202</v>
+        <v>0.02362526505108149</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1609055015.203406</v>
+        <v>1816270929.863188</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08248302007262748</v>
+        <v>0.06484861928071144</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03469300975908634</v>
+        <v>0.02426119553063354</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1745107315.037426</v>
+        <v>2512841461.827008</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1391599588804922</v>
+        <v>0.1619169369208361</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05256410260878053</v>
+        <v>0.03828526683438397</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2053,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4292891672.558751</v>
+        <v>4228269468.29171</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1747740392818851</v>
+        <v>0.1593896869151143</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03692529941154026</v>
+        <v>0.06102285229230536</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>64</v>
+      </c>
+      <c r="J46" t="n">
+        <v>112</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2094,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3304703924.595327</v>
+        <v>3478097403.709638</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1938426528723312</v>
+        <v>0.1519462769868716</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04008833059363248</v>
+        <v>0.03864538567340815</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>49</v>
+      </c>
+      <c r="J47" t="n">
+        <v>112</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2129,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3176796359.200735</v>
+        <v>3707132741.280141</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08136492971041126</v>
+        <v>0.08261286395304079</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02981939082087061</v>
+        <v>0.03466957552416439</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>42</v>
+      </c>
+      <c r="J48" t="n">
+        <v>112</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1564362500.739548</v>
+        <v>1383134885.736917</v>
       </c>
       <c r="F49" t="n">
-        <v>0.130295215726964</v>
+        <v>0.1696681520745811</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03415068860193956</v>
+        <v>0.0288040917449069</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4125301964.385963</v>
+        <v>4162697702.460385</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1695916505519836</v>
+        <v>0.110509758671371</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04201697180111711</v>
+        <v>0.04042852448267558</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>38</v>
+      </c>
+      <c r="J50" t="n">
+        <v>112</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1127177921.547832</v>
+        <v>1359661341.619787</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1408744136226736</v>
+        <v>0.1535996706652268</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04081595572151248</v>
+        <v>0.05010215723937716</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3656440715.273389</v>
+        <v>5145958236.471983</v>
       </c>
       <c r="F52" t="n">
-        <v>0.104429718196776</v>
+        <v>0.1096342182197688</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03793563730002229</v>
+        <v>0.04234255850214222</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>86</v>
+      </c>
+      <c r="J52" t="n">
+        <v>112</v>
+      </c>
+      <c r="K52" t="n">
+        <v>161.5420503862711</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2987336053.907695</v>
+        <v>2828547720.418361</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1777900569351737</v>
+        <v>0.1840592475085432</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02854907017318936</v>
+        <v>0.03255602879702745</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>108</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4888291245.701495</v>
+        <v>4048726050.208803</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1645032504950291</v>
+        <v>0.1546126924490862</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04048845751609993</v>
+        <v>0.05013349411291861</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>50</v>
+      </c>
+      <c r="J54" t="n">
+        <v>112</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4653419773.305765</v>
+        <v>3784583626.254986</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1866864559124814</v>
+        <v>0.1444625660137707</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02931470443856119</v>
+        <v>0.02282954302549284</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>51</v>
+      </c>
+      <c r="J55" t="n">
+        <v>112</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1811004372.928323</v>
+        <v>1228783533.559756</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1155619469122757</v>
+        <v>0.1076296557916685</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0541864252683535</v>
+        <v>0.04468121054399733</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3705952416.58451</v>
+        <v>4560035221.08284</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1488724733383883</v>
+        <v>0.1830702190844653</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02428696283725383</v>
+        <v>0.01744702387926351</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>43</v>
+      </c>
+      <c r="J57" t="n">
+        <v>112</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1181624698.247752</v>
+        <v>1471931646.019235</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1377326535146337</v>
+        <v>0.201557514466215</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03359069423899533</v>
+        <v>0.03085546943389296</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5186181328.925423</v>
+        <v>5042443549.029999</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09465250638895675</v>
+        <v>0.1023931515311221</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04579192477012448</v>
+        <v>0.03732877651424228</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>54</v>
+      </c>
+      <c r="J59" t="n">
+        <v>112</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2590199654.959107</v>
+        <v>2935463919.148082</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1251661269022744</v>
+        <v>0.1916268336736694</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02627029646586643</v>
+        <v>0.02334818560808087</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>16</v>
+      </c>
+      <c r="J60" t="n">
+        <v>110</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2726527533.626594</v>
+        <v>2831600219.866565</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1550756574109769</v>
+        <v>0.1644484137410163</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02503077541114702</v>
+        <v>0.03304884214732696</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>110</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1345367340.337622</v>
+        <v>2087170309.38813</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1425049588835894</v>
+        <v>0.1820139647024903</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04750300605834851</v>
+        <v>0.0458579335694661</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4010686450.850708</v>
+        <v>4752275204.675592</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08469565793255011</v>
+        <v>0.06555998049231346</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02877079087583027</v>
+        <v>0.02994154970365255</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>55</v>
+      </c>
+      <c r="J63" t="n">
+        <v>112</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5454579063.140332</v>
+        <v>4832234082.826349</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1856486442854614</v>
+        <v>0.1548299971339284</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02536400414882462</v>
+        <v>0.03170127916999243</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>55</v>
+      </c>
+      <c r="J64" t="n">
+        <v>112</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5652032505.300626</v>
+        <v>5899732087.591453</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1104650321930168</v>
+        <v>0.1058544294527673</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02928281657992422</v>
+        <v>0.0318255405952285</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>92</v>
+      </c>
+      <c r="J65" t="n">
+        <v>112</v>
+      </c>
+      <c r="K65" t="n">
+        <v>160.7645502293622</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4450798143.898853</v>
+        <v>4795720933.172634</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1505889808518187</v>
+        <v>0.1073766839505293</v>
       </c>
       <c r="G66" t="n">
-        <v>0.042250603910807</v>
+        <v>0.04819681473180772</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>55</v>
+      </c>
+      <c r="J66" t="n">
+        <v>111</v>
+      </c>
+      <c r="K66" t="n">
+        <v>144.2045112723079</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2800,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3229348870.866806</v>
+        <v>2962247789.840777</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07488013700179309</v>
+        <v>0.09378613537129177</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04532208149384658</v>
+        <v>0.04226024811411215</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4524906745.371392</v>
+        <v>5038703063.721378</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1365308031403389</v>
+        <v>0.123759188997284</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05136976209978671</v>
+        <v>0.04424089591849582</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>56</v>
+      </c>
+      <c r="J68" t="n">
+        <v>111</v>
+      </c>
+      <c r="K68" t="n">
+        <v>145.9026525769883</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1801289030.161663</v>
+        <v>1761222225.321614</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1791772799417398</v>
+        <v>0.1691175010531901</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04027535198454821</v>
+        <v>0.05765339000856445</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2336055205.359441</v>
+        <v>2411724991.069991</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08709956007178873</v>
+        <v>0.08847732576793978</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04847571484745385</v>
+        <v>0.02995645030188598</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>105</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5039462547.472754</v>
+        <v>4476423046.217098</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1616998571957244</v>
+        <v>0.1301530852051238</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03008054806024232</v>
+        <v>0.02933787806640303</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>91</v>
+      </c>
+      <c r="J71" t="n">
+        <v>112</v>
+      </c>
+      <c r="K71" t="n">
+        <v>154.4023989839573</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1489960137.855822</v>
+        <v>1553665321.988412</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08273209816637805</v>
+        <v>0.07537717223662974</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03274514859707536</v>
+        <v>0.04957806936152617</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3008,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2172763414.333451</v>
+        <v>3556458877.6888</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08366838547334211</v>
+        <v>0.06800026764242252</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04965800047327881</v>
+        <v>0.04290847221815567</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>111</v>
+      </c>
+      <c r="K73" t="n">
+        <v>101.1292079076446</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2651303528.661482</v>
+        <v>2436777197.081082</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1399676723162599</v>
+        <v>0.1552333879609843</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02202097829252465</v>
+        <v>0.02375228132564744</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>38</v>
+      </c>
+      <c r="J74" t="n">
+        <v>109</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1823761068.747978</v>
+        <v>1834577525.865728</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1482214911904357</v>
+        <v>0.118526372386387</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02465554238129744</v>
+        <v>0.03672212597211688</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4760225809.061807</v>
+        <v>5168831228.636301</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09919045607970849</v>
+        <v>0.09581538759673702</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02721728491064675</v>
+        <v>0.03252180351530187</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>52</v>
+      </c>
+      <c r="J76" t="n">
+        <v>111</v>
+      </c>
+      <c r="K76" t="n">
+        <v>125.7447178073322</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1737785874.642993</v>
+        <v>1850592098.841392</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1867889751342472</v>
+        <v>0.1847505048849831</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01977927905075252</v>
+        <v>0.02148398300623311</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3569344728.950174</v>
+        <v>4053698613.231423</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1158552154704469</v>
+        <v>0.09720783271374894</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0376088545891988</v>
+        <v>0.04282833658461641</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>56</v>
+      </c>
+      <c r="J78" t="n">
+        <v>111</v>
+      </c>
+      <c r="K78" t="n">
+        <v>128.4543425536842</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1874566528.561087</v>
+        <v>1161197604.229802</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1186856878918609</v>
+        <v>0.1201395459048949</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02592065180709157</v>
+        <v>0.0406836386592998</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5347890933.913293</v>
+        <v>4910982516.149245</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08093223998047255</v>
+        <v>0.09225216773850294</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03823452626126297</v>
+        <v>0.02378214912936758</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>54</v>
+      </c>
+      <c r="J80" t="n">
+        <v>111</v>
+      </c>
+      <c r="K80" t="n">
+        <v>117.3375737212131</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3302,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4261584408.435295</v>
+        <v>4751371094.252929</v>
       </c>
       <c r="F81" t="n">
-        <v>0.111373347703118</v>
+        <v>0.1252288725331339</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03155150399200835</v>
+        <v>0.03153137016258098</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>50</v>
+      </c>
+      <c r="J81" t="n">
+        <v>111</v>
+      </c>
+      <c r="K81" t="n">
+        <v>131.7303051390031</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3333,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5125102234.482178</v>
+        <v>4363339334.986584</v>
       </c>
       <c r="F82" t="n">
-        <v>0.150531027848053</v>
+        <v>0.1502379750023088</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02558316257240034</v>
+        <v>0.02234165212089759</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>76</v>
+      </c>
+      <c r="J82" t="n">
+        <v>111</v>
+      </c>
+      <c r="K82" t="n">
+        <v>151.7272188520944</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3376,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2329397226.436919</v>
+        <v>1942113715.911615</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1109111999558422</v>
+        <v>0.1477543286627011</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04255162284875105</v>
+        <v>0.0447971492146368</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1713777400.782324</v>
+        <v>1829015752.148718</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07908396300306737</v>
+        <v>0.08953196740673136</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03770846473995111</v>
+        <v>0.04579693422094388</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3446,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2547524374.739257</v>
+        <v>2279102568.662389</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1715897313386543</v>
+        <v>0.1433309558155301</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05422301861152311</v>
+        <v>0.04007001990389307</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1856002657.825884</v>
+        <v>2743197980.971065</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1607335209842527</v>
+        <v>0.1718697071397245</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02037228384043362</v>
+        <v>0.02356767226835159</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1161950393.865622</v>
+        <v>1174292209.074539</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1785326348229677</v>
+        <v>0.1515871068408292</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03007782674458884</v>
+        <v>0.03600233048047085</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2499944160.673951</v>
+        <v>2622356729.844763</v>
       </c>
       <c r="F88" t="n">
-        <v>0.113822452768095</v>
+        <v>0.1713171097768509</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02507555462528139</v>
+        <v>0.03314548284720754</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2126772291.658805</v>
+        <v>2901324197.877843</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1087805495632401</v>
+        <v>0.106112206904271</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03837156940040452</v>
+        <v>0.034875481108658</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3621,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2172437368.525308</v>
+        <v>1307406832.729405</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1229731846798742</v>
+        <v>0.09783248484490574</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05295889692546384</v>
+        <v>0.05059442902351006</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1881245457.523449</v>
+        <v>1361803115.055509</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1364874453982733</v>
+        <v>0.1624831223936677</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0385769357352008</v>
+        <v>0.05225644045719836</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3691,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2708736517.488821</v>
+        <v>2534122581.6013</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09117768462020774</v>
+        <v>0.1003108756202358</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03141500388310564</v>
+        <v>0.03654223550852135</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4835126269.708481</v>
+        <v>3928536759.390812</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1382366306213642</v>
+        <v>0.106123060183457</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03327999281819901</v>
+        <v>0.04365065290149</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>51</v>
+      </c>
+      <c r="J93" t="n">
+        <v>112</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1746996421.385201</v>
+        <v>1528264043.970882</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1653071492620099</v>
+        <v>0.1554152743704737</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03982687978719662</v>
+        <v>0.032026035288798</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2356007685.08412</v>
+        <v>2170146107.727123</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1200501395327872</v>
+        <v>0.1193787768766081</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04136412272732295</v>
+        <v>0.04999489960597886</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1545228909.543113</v>
+        <v>2202770890.407073</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09676374318959786</v>
+        <v>0.1096491183471116</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03304942299578237</v>
+        <v>0.03297537168845007</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3913878470.281888</v>
+        <v>4486628742.592211</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1371701095429775</v>
+        <v>0.1552594500534699</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01869578203299532</v>
+        <v>0.02431598668260072</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>53</v>
+      </c>
+      <c r="J97" t="n">
+        <v>112</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2847577020.868369</v>
+        <v>2881138269.342146</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1060283512954632</v>
+        <v>0.107489048371936</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03217595370826737</v>
+        <v>0.02140330125817424</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>26</v>
+      </c>
+      <c r="J98" t="n">
+        <v>110</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3380142040.757161</v>
+        <v>2212011011.898348</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09651892361457133</v>
+        <v>0.1361111016487937</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03175132146864628</v>
+        <v>0.03009757890784847</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3253966591.147909</v>
+        <v>3960775043.149202</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1676895209844158</v>
+        <v>0.1714149182323667</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01835329041699555</v>
+        <v>0.02647760595641993</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>45</v>
+      </c>
+      <c r="J100" t="n">
+        <v>112</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2198491498.043971</v>
+        <v>2852863018.326701</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1830863272131726</v>
+        <v>0.2114620098393515</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0583354542301367</v>
+        <v>0.05662116683961568</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
